--- a/Datos/CasosPrueba.xlsx
+++ b/Datos/CasosPrueba.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dengue16" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Pruebas" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="125">
   <si>
     <t xml:space="preserve">cod_eve</t>
   </si>
@@ -389,6 +390,12 @@
   </si>
   <si>
     <t xml:space="preserve">No Primera Semana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cumple</t>
   </si>
 </sst>
 </file>
@@ -493,13 +500,13 @@
   </sheetPr>
   <dimension ref="A1:AP65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0971659919028"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="true" max="2" min="2" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="true" max="24" min="4" style="0" width="0"/>
@@ -2251,6 +2258,901 @@
         <v>38725</v>
       </c>
     </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AP65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y4" activeCellId="0" sqref="Y4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="true" max="2" min="2" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="true" max="24" min="4" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="true" max="1025" min="26" style="0" width="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="1" t="n">
+        <v>42381</v>
+      </c>
+      <c r="Y2" s="1" t="n">
+        <v>42880</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="X3" s="1" t="n">
+        <v>42381</v>
+      </c>
+      <c r="Y3" s="1" t="n">
+        <v>42896</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" s="1" t="n">
+        <v>42381</v>
+      </c>
+      <c r="Y4" s="1" t="n">
+        <v>42371</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="X5" s="1" t="n">
+        <v>42381</v>
+      </c>
+      <c r="Y5" s="1" t="n">
+        <v>42001</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="X6" s="1" t="n">
+        <v>42381</v>
+      </c>
+      <c r="Y6" s="1" t="n">
+        <v>42002</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="X7" s="1" t="n">
+        <v>42381</v>
+      </c>
+      <c r="Y7" s="1" t="n">
+        <v>42003</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="X8" s="1" t="n">
+        <v>42381</v>
+      </c>
+      <c r="Y8" s="1" t="n">
+        <v>42004</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="X9" s="1" t="n">
+        <v>42381</v>
+      </c>
+      <c r="Y9" s="1" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="X10" s="1" t="n">
+        <v>42381</v>
+      </c>
+      <c r="Y10" s="1" t="n">
+        <v>42006</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="V11" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="X11" s="1" t="n">
+        <v>42381</v>
+      </c>
+      <c r="Y11" s="1" t="n">
+        <v>42007</v>
+      </c>
+    </row>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
